--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mulin\Lomba\Geopoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F7E6E4-744B-43E9-B511-8C7014175A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C130ADC-2BBD-49F6-991F-6EE559D6AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>4.shp</t>
   </si>
   <si>
-    <t>5.shp</t>
+    <t>0.shp</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +409,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>78</v>
